--- a/data/13c_mfa/13C_mfa_to_gsm_template.xlsx
+++ b/data/13c_mfa/13C_mfa_to_gsm_template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrettroell/yarrowia_eflux2/data/13c_mfa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{594B2286-5337-2345-9EC5-6FC39ACE6938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94476BB-BF4E-5042-B96B-53662D6D611E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="16200" xr2:uid="{2683B27E-BA21-2341-8B90-63D55B06C26E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -674,9 +674,6 @@
     <t>0.294*ALA + 0.174*ARG + 0.196*ASN + 0.196*ASP + 0.036*CYS + 0.239*GLN + 0.239*GLU + 0.214*GLY + 0.112*HIS + 0.159*ILE + 0.319*LEU + 0.254*LYS + 0.112*MET + 0.174*PHE + 0.17*PRO + 0.203*SER + 0.221*THR + 0.036*TRP + 0.112*TYR + 0.221*VAL -&gt; Biomass</t>
   </si>
   <si>
-    <t>biomass_C</t>
-  </si>
-  <si>
     <t>biomass_formation</t>
   </si>
   <si>
@@ -732,6 +729,9 @@
   </si>
   <si>
     <t>co2_formation</t>
+  </si>
+  <si>
+    <t>biomass_C or biomass_glucose or biomass_oleic_acid</t>
   </si>
 </sst>
 </file>
@@ -1176,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3DE830-3448-914A-83FA-B0CEAA80FC84}">
   <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5271,10 +5271,10 @@
         <v>211</v>
       </c>
       <c r="D68" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" t="s">
         <v>212</v>
-      </c>
-      <c r="E68" t="s">
-        <v>213</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>24</v>
@@ -5327,19 +5327,19 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" t="s">
         <v>214</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>215</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>216</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>217</v>
-      </c>
-      <c r="E69" t="s">
-        <v>218</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>24</v>
@@ -5392,13 +5392,13 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" t="s">
         <v>219</v>
-      </c>
-      <c r="C70" t="s">
-        <v>220</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70">
@@ -5449,13 +5449,13 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B71" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" t="s">
         <v>221</v>
-      </c>
-      <c r="C71" t="s">
-        <v>222</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71">
@@ -5506,13 +5506,13 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" t="s">
         <v>223</v>
-      </c>
-      <c r="C72" t="s">
-        <v>224</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72">
@@ -5563,13 +5563,13 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" t="s">
         <v>225</v>
-      </c>
-      <c r="C73" t="s">
-        <v>226</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="3"/>
@@ -5600,22 +5600,22 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B74" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" t="s">
         <v>227</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>228</v>
-      </c>
-      <c r="D74" t="s">
-        <v>229</v>
       </c>
       <c r="E74" t="s">
         <v>152</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G74">
         <v>195.30950000000001</v>
